--- a/biology/Botanique/Épiaire_officinale/Épiaire_officinale.xlsx
+++ b/biology/Botanique/Épiaire_officinale/Épiaire_officinale.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -466,7 +476,7 @@
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>%C3%89piaire_officinale</t>
+          <t>Épiaire_officinale</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
@@ -480,12 +490,14 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Stachys officinalis
 L'Épiaire officinale, Bétoine officinale ou simplement Bétoine (Stachys officinalis) est une plante herbacée vivace de la famille des Lamiacées.
-Son intérêt médicinal était connu dans l'Antiquité, par un traité attribué à Antonius Musa, médecin d'Auguste[1].
-Le mot bétoine semble être une altération du latin vettonica, d'origine gauloise[2].
+Son intérêt médicinal était connu dans l'Antiquité, par un traité attribué à Antonius Musa, médecin d'Auguste.
+Le mot bétoine semble être une altération du latin vettonica, d'origine gauloise.
 </t>
         </is>
       </c>
@@ -496,7 +508,7 @@
       </c>
       <c r="B3" t="inlineStr">
         <is>
-          <t>%C3%89piaire_officinale</t>
+          <t>Épiaire_officinale</t>
         </is>
       </c>
       <c r="C3" t="inlineStr">
@@ -514,7 +526,9 @@
           <t>Synonyme</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t>Betonica officinalis L., 1753</t>
         </is>
@@ -526,7 +540,7 @@
       </c>
       <c r="B4" t="inlineStr">
         <is>
-          <t>%C3%89piaire_officinale</t>
+          <t>Épiaire_officinale</t>
         </is>
       </c>
       <c r="C4" t="inlineStr">
@@ -544,11 +558,48 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">C'est une plante herbacée moyenne (15 à plus de 40 cm) à feuilles opposées et crénelées sur le bord du limbe.
-Caractéristiques
-Organes reproducteurs
+</t>
+        </is>
+      </c>
+    </row>
+    <row r="5">
+      <c r="A5" s="1" t="n">
+        <v>3</v>
+      </c>
+      <c r="B5" t="inlineStr">
+        <is>
+          <t>Épiaire_officinale</t>
+        </is>
+      </c>
+      <c r="C5" t="inlineStr">
+        <is>
+          <t>Portail:Botanique/Articles liés</t>
+        </is>
+      </c>
+      <c r="D5" t="inlineStr">
+        <is>
+          <t>https://fr.wikipedia.org/wiki/%C3%89piaire_officinale</t>
+        </is>
+      </c>
+      <c r="E5" t="inlineStr">
+        <is>
+          <t>Description</t>
+        </is>
+      </c>
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>Caractéristiques</t>
+        </is>
+      </c>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Organes reproducteurs
 Couleur dominante des fleurs : rose
 Période de floraison : juillet-octobre
 Inflorescence : glomérules spiciformes
@@ -566,33 +617,35 @@
         </is>
       </c>
     </row>
-    <row r="5">
-      <c r="A5" s="1" t="n">
-        <v>3</v>
-      </c>
-      <c r="B5" t="inlineStr">
-        <is>
-          <t>%C3%89piaire_officinale</t>
-        </is>
-      </c>
-      <c r="C5" t="inlineStr">
+    <row r="6">
+      <c r="A6" s="1" t="n">
+        <v>4</v>
+      </c>
+      <c r="B6" t="inlineStr">
+        <is>
+          <t>Épiaire_officinale</t>
+        </is>
+      </c>
+      <c r="C6" t="inlineStr">
         <is>
           <t>Portail:Botanique/Articles liés</t>
         </is>
       </c>
-      <c r="D5" t="inlineStr">
+      <c r="D6" t="inlineStr">
         <is>
           <t>https://fr.wikipedia.org/wiki/%C3%89piaire_officinale</t>
         </is>
       </c>
-      <c r="E5" t="inlineStr">
+      <c r="E6" t="inlineStr">
         <is>
           <t>Calendrier</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t xml:space="preserve">Le 12e jour du mois de prairial du calendrier républicain français est officiellement dénommé jour de la bétoine[3], généralement chaque 31 mai du calendrier grégorien.
+      <c r="F6" t="inlineStr"/>
+      <c r="G6" t="inlineStr"/>
+      <c r="H6" t="inlineStr">
+        <is>
+          <t xml:space="preserve">Le 12e jour du mois de prairial du calendrier républicain français est officiellement dénommé jour de la bétoine, généralement chaque 31 mai du calendrier grégorien.
 </t>
         </is>
       </c>
